--- a/xtt_demo/ZXXT_DEMO_040_T.XLSX
+++ b/xtt_demo/ZXXT_DEMO_040_T.XLSX
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\xtt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\!current\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A253A9-3288-4977-96D0-5EC9E82AAE47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="UNITS_LIST">Sheet1!$B$9:$I$10</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -101,9 +102,6 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>{R-C-LANDX}</t>
-  </si>
-  <si>
     <t>{R-C-LAND1}</t>
   </si>
   <si>
@@ -117,6 +115,9 @@
   </si>
   <si>
     <t>Press Ctrl + F3 to see defined names</t>
+  </si>
+  <si>
+    <t>{R-C-LANDX50}</t>
   </si>
 </sst>
 </file>
@@ -723,7 +724,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -733,14 +734,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,7 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -800,7 +804,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -819,6 +826,9 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -853,22 +863,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7D8E86E-06D4-462C-BF74-B008D1369F8F}" name="TB_COUNTRY" displayName="TB_COUNTRY" ref="B13:C14" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7D8E86E-06D4-462C-BF74-B008D1369F8F}" name="TB_COUNTRY" displayName="TB_COUNTRY" ref="B13:C14" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B13:C14" xr:uid="{0A896401-34F4-4F5A-B425-15BD837D8800}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B67D84ED-A54A-402D-8CDF-3A1F4C4E6E17}" name="Country Key"/>
-    <tableColumn id="2" xr3:uid="{DF6B8C65-60F7-400B-AE30-D6FD6934588E}" name="Country Name"/>
+    <tableColumn id="2" xr3:uid="{DF6B8C65-60F7-400B-AE30-D6FD6934588E}" name="Country Name" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6192F32B-E2FB-43D0-8274-5C6F60352E1F}" name="TB_UNIT" displayName="TB_UNIT" ref="B2:C3" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6192F32B-E2FB-43D0-8274-5C6F60352E1F}" name="TB_UNIT" displayName="TB_UNIT" ref="B2:C3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:C3" xr:uid="{878B8CCB-7E3B-4768-A14E-600D4D606D07}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CE16F048-3933-434A-9E71-52BBF2D168B9}" name="Unit of Measurement"/>
-    <tableColumn id="2" xr3:uid="{5E2FA219-B19D-495E-AFE9-B6A3238872AF}" name="Text"/>
+    <tableColumn id="2" xr3:uid="{5E2FA219-B19D-495E-AFE9-B6A3238872AF}" name="Text" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1174,7 +1184,7 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1202,7 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1203,7 +1213,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1212,7 +1222,7 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1221,13 +1231,13 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1235,59 +1245,59 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="15">
+      <c r="D10" s="13"/>
+      <c r="E10" s="17">
         <f>ROW(B$10)</f>
         <v>10</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1300,10 +1310,10 @@
     <mergeCell ref="E10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1313,7 +1323,7 @@
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1344,7 @@
       <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
